--- a/XLSX/BuildingInfoTable.xlsx
+++ b/XLSX/BuildingInfoTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F17324-A73F-4EED-BD75-64820E57F8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75347675-4E2C-4E77-B816-D0589AF08D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{709255B8-6DBD-4394-B970-6F424FE6CA7F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +443,10 @@
   </si>
   <si>
     <t>UpgradeUseItemAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array&lt;int32&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1041,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25ABCBA2-7E9C-466E-8D99-C425574801C3}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1178,64 +1182,64 @@
         <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
